--- a/Whats_app/Enviar.xlsx
+++ b/Whats_app/Enviar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Downloads\Video 3 - Enviar Mensagem pelo Whatsapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jether-home01\PycharmProjects\pythonProject1\Learning-Python\Whats_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2155F9C-95B5-40AE-82A0-3196F389692B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF43F51-EFFA-4845-87EA-2123289F3E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{F81C85CE-3BCD-4B33-8C8B-0A39913C8743}"/>
+    <workbookView xWindow="3045" yWindow="3990" windowWidth="21600" windowHeight="11505" xr2:uid="{F81C85CE-3BCD-4B33-8C8B-0A39913C8743}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Pessoa</t>
   </si>
@@ -45,25 +45,22 @@
     <t>Mensagem</t>
   </si>
   <si>
-    <t>Coe, ta doidao?</t>
-  </si>
-  <si>
     <t>E aí, tudo bem?</t>
   </si>
   <si>
-    <t>Oi sumida</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Alon</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>PREENCHA SEU NUMERO AQUI</t>
+    <t>5519982227092</t>
+  </si>
+  <si>
+    <t>Teste API isso é um robo usando meu numero não responda!</t>
+  </si>
+  <si>
+    <t>553284878178</t>
+  </si>
+  <si>
+    <t>Erica</t>
+  </si>
+  <si>
+    <t>Jether</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,15 +416,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,38 +435,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
